--- a/data/trans_orig/POLIPATOLOGIA_Lim_5-Clase-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA_Lim_5-Clase-trans_orig.xlsx
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4929</v>
+        <v>4891</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002269194788739653</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01127468027879629</v>
+        <v>0.01118745767610849</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -764,19 +764,19 @@
         <v>12759</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6057</v>
+        <v>7053</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22013</v>
+        <v>22249</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04057359599782514</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01926202324249843</v>
+        <v>0.02242787655814836</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07000336020573715</v>
+        <v>0.07075529838868004</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -785,19 +785,19 @@
         <v>13751</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7413</v>
+        <v>7151</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22400</v>
+        <v>23774</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01829359578726829</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009861757089924704</v>
+        <v>0.009513722194604619</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02980026942899085</v>
+        <v>0.03162900057760865</v>
       </c>
     </row>
     <row r="5">
@@ -814,7 +814,7 @@
         <v>436219</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>432282</v>
+        <v>432320</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>437211</v>
@@ -823,7 +823,7 @@
         <v>0.9977308052112603</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9887253197212036</v>
+        <v>0.9888125423238916</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -835,19 +835,19 @@
         <v>301695</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>292441</v>
+        <v>292205</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>308397</v>
+        <v>307401</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9594264040021748</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9299966397942629</v>
+        <v>0.9292447016113199</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9807379767575016</v>
+        <v>0.9775721234418516</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>675</v>
@@ -856,19 +856,19 @@
         <v>737914</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>729265</v>
+        <v>727891</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>744252</v>
+        <v>744514</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9817064042127317</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9701997305710092</v>
+        <v>0.9683709994223912</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9901382429100752</v>
+        <v>0.9904862778053953</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>8253</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4038</v>
+        <v>4004</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16259</v>
+        <v>15943</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01970757739642615</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.009641778782950298</v>
+        <v>0.009560769736061719</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03882201439663441</v>
+        <v>0.03806925169048762</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -981,19 +981,19 @@
         <v>14757</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8136</v>
+        <v>8693</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>24894</v>
+        <v>25886</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0436587530748775</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02407050911567414</v>
+        <v>0.02571823786528</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07364874465140438</v>
+        <v>0.07658198104333562</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>21</v>
@@ -1002,19 +1002,19 @@
         <v>23011</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>14121</v>
+        <v>14057</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>33377</v>
+        <v>34518</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03040482504723822</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01865914133643723</v>
+        <v>0.01857385469580452</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04410264558726677</v>
+        <v>0.04560958632198109</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>410544</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>402538</v>
+        <v>402854</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>414759</v>
+        <v>414793</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9802924226035739</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9611779856033652</v>
+        <v>0.9619307483095124</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9903582212170496</v>
+        <v>0.9904392302639383</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>292</v>
@@ -1052,19 +1052,19 @@
         <v>323254</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>313117</v>
+        <v>312125</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>329875</v>
+        <v>329318</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9563412469251225</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9263512553485956</v>
+        <v>0.9234180189566648</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.975929490884326</v>
+        <v>0.9742817621347201</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>659</v>
@@ -1073,19 +1073,19 @@
         <v>733797</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>723431</v>
+        <v>722290</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>742687</v>
+        <v>742751</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9695951749527618</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9558973544127332</v>
+        <v>0.9543904136780189</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9813408586635626</v>
+        <v>0.9814261453041955</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>29123</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18660</v>
+        <v>18741</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>41709</v>
+        <v>41511</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04626929933529639</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02964644804149893</v>
+        <v>0.02977593872189481</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06626588991327313</v>
+        <v>0.06595241754470962</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -1198,19 +1198,19 @@
         <v>16503</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10059</v>
+        <v>9940</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25439</v>
+        <v>25829</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06344246758310017</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03867081069850361</v>
+        <v>0.03821121060378991</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09779499938446957</v>
+        <v>0.09929217249804684</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>41</v>
@@ -1219,19 +1219,19 @@
         <v>45626</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>33347</v>
+        <v>33155</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>61106</v>
+        <v>60975</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05129124902354387</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03748808543832573</v>
+        <v>0.03727211197131402</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06869412398519027</v>
+        <v>0.06854668365306701</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>600292</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>587706</v>
+        <v>587904</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>610755</v>
+        <v>610674</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9537307006647036</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9337341100867274</v>
+        <v>0.9340475824552902</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9703535519585013</v>
+        <v>0.9702240612781051</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>228</v>
@@ -1269,19 +1269,19 @@
         <v>243626</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>234690</v>
+        <v>234300</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>250070</v>
+        <v>250189</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9365575324168999</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9022050006155303</v>
+        <v>0.9007078275019533</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9613291893014962</v>
+        <v>0.9617887893962103</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>794</v>
@@ -1290,19 +1290,19 @@
         <v>843918</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>828438</v>
+        <v>828569</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>856197</v>
+        <v>856389</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9487087509764561</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9313058760148097</v>
+        <v>0.931453316346933</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9625119145616743</v>
+        <v>0.9627278880286861</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>63900</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>50204</v>
+        <v>49228</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>81554</v>
+        <v>81125</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05513312203887326</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0433158949802394</v>
+        <v>0.0424741744739508</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.070365332498722</v>
+        <v>0.069995191217561</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>41</v>
@@ -1415,19 +1415,19 @@
         <v>45409</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>33209</v>
+        <v>33053</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>59909</v>
+        <v>60177</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05922942267346127</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04331645623005913</v>
+        <v>0.04311328406691266</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07814345553556894</v>
+        <v>0.07849232037120979</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>100</v>
@@ -1436,19 +1436,19 @@
         <v>109308</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>87504</v>
+        <v>88904</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>130481</v>
+        <v>130712</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05676396468714805</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04544091511843191</v>
+        <v>0.04616790799165359</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06775870778894433</v>
+        <v>0.06787864899793343</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>1095109</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1077455</v>
+        <v>1077884</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1108805</v>
+        <v>1109781</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9448668779611268</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.929634667501278</v>
+        <v>0.930004808782439</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9566841050197605</v>
+        <v>0.9575258255260491</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>670</v>
@@ -1486,19 +1486,19 @@
         <v>721248</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>706748</v>
+        <v>706480</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>733448</v>
+        <v>733604</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9407705773265387</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9218565444644309</v>
+        <v>0.9215076796287901</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9566835437699408</v>
+        <v>0.9568867159330874</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1694</v>
@@ -1507,19 +1507,19 @@
         <v>1816359</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1795186</v>
+        <v>1794955</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1838163</v>
+        <v>1836763</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9432360353128519</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.932241292211056</v>
+        <v>0.9321213510020666</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9545590848815683</v>
+        <v>0.9538320920083465</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>18066</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10507</v>
+        <v>10667</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27825</v>
+        <v>27398</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03538263306191541</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02057752734932904</v>
+        <v>0.0208921808136929</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05449538723294436</v>
+        <v>0.05365813470539527</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>89</v>
@@ -1632,19 +1632,19 @@
         <v>96104</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>78932</v>
+        <v>81176</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>116131</v>
+        <v>118338</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1262002205158195</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1036498672960992</v>
+        <v>0.1065974683153526</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1524988982052575</v>
+        <v>0.1553963974536157</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>106</v>
@@ -1653,19 +1653,19 @@
         <v>114170</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>93618</v>
+        <v>93504</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>135061</v>
+        <v>135418</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08974831664231231</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07359206727885939</v>
+        <v>0.07350270539048033</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1061704947470408</v>
+        <v>0.106450679735482</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>492530</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>482771</v>
+        <v>483198</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>500089</v>
+        <v>499929</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9646173669380846</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9455046127670553</v>
+        <v>0.9463418652946048</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9794224726506708</v>
+        <v>0.9791078191863071</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>614</v>
@@ -1703,19 +1703,19 @@
         <v>665418</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>645391</v>
+        <v>643184</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>682590</v>
+        <v>680346</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8737997794841805</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8475011017947425</v>
+        <v>0.8446036025463848</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8963501327039011</v>
+        <v>0.8934025316846476</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1084</v>
@@ -1724,19 +1724,19 @@
         <v>1157948</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1137057</v>
+        <v>1136700</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1178500</v>
+        <v>1178614</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9102516833576877</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8938295052529592</v>
+        <v>0.8935493202645181</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9264079327211406</v>
+        <v>0.9264972946095198</v>
       </c>
     </row>
     <row r="18">
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6046</v>
+        <v>6997</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.007390332524574539</v>
@@ -1840,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02265271069399139</v>
+        <v>0.0262191624340714</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>133</v>
@@ -1849,19 +1849,19 @@
         <v>144502</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>124267</v>
+        <v>120410</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>168717</v>
+        <v>169422</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.130258562134236</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1120179114434972</v>
+        <v>0.1085410560448142</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1520863288438264</v>
+        <v>0.1527218080026202</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>135</v>
@@ -1870,19 +1870,19 @@
         <v>146475</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>123687</v>
+        <v>123009</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>170706</v>
+        <v>170324</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1064317061780842</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08987329937590281</v>
+        <v>0.08938123205157926</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.124038455929224</v>
+        <v>0.123761242298843</v>
       </c>
     </row>
     <row r="20">
@@ -1899,7 +1899,7 @@
         <v>264910</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>260836</v>
+        <v>259885</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>266882</v>
@@ -1908,7 +1908,7 @@
         <v>0.9926096674754255</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9773472893060084</v>
+        <v>0.9737808375659259</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1920,19 +1920,19 @@
         <v>964849</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>940634</v>
+        <v>939929</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>985084</v>
+        <v>988941</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.869741437865764</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8479136711561737</v>
+        <v>0.8472781919973797</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8879820885565028</v>
+        <v>0.8914589439551857</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1174</v>
@@ -1941,19 +1941,19 @@
         <v>1229758</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1205527</v>
+        <v>1205909</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1252546</v>
+        <v>1253224</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8935682938219158</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.875961544070776</v>
+        <v>0.8762387577011568</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.910126700624097</v>
+        <v>0.9106187679484206</v>
       </c>
     </row>
     <row r="21">
@@ -2045,19 +2045,19 @@
         <v>122307</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>101974</v>
+        <v>102010</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>144196</v>
+        <v>145874</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03574219159013586</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02980033343785402</v>
+        <v>0.0298107012981321</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04213895291799648</v>
+        <v>0.04262934758954869</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>303</v>
@@ -2066,19 +2066,19 @@
         <v>330034</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>295876</v>
+        <v>292368</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>366790</v>
+        <v>363770</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09296413895458214</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08334242793974538</v>
+        <v>0.082354204098218</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1033173928685507</v>
+        <v>0.1024666814031456</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>415</v>
@@ -2087,19 +2087,19 @@
         <v>452341</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>406633</v>
+        <v>409022</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>495446</v>
+        <v>497892</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06487931933189595</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05832339619371438</v>
+        <v>0.05866607182440636</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07106187519596947</v>
+        <v>0.07141272608293577</v>
       </c>
     </row>
     <row r="23">
@@ -2116,19 +2116,19 @@
         <v>3299603</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3277714</v>
+        <v>3276036</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3319936</v>
+        <v>3319900</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9642578084098641</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9578610470820036</v>
+        <v>0.9573706524104511</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.970199666562146</v>
+        <v>0.9701892987018679</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2987</v>
@@ -2137,19 +2137,19 @@
         <v>3220091</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3183335</v>
+        <v>3186355</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3254249</v>
+        <v>3257757</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9070358610454179</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8966826071314493</v>
+        <v>0.8975333185968544</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9166575720602546</v>
+        <v>0.917645795901782</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6080</v>
@@ -2158,19 +2158,19 @@
         <v>6519694</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6476589</v>
+        <v>6474143</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6565402</v>
+        <v>6563013</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9351206806681041</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9289381248040303</v>
+        <v>0.9285872739170636</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9416766038062854</v>
+        <v>0.9413339281755927</v>
       </c>
     </row>
     <row r="24">
@@ -2504,19 +2504,19 @@
         <v>12479</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6278</v>
+        <v>6742</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21493</v>
+        <v>21876</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02908223602967948</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01463062822070738</v>
+        <v>0.0157129264943415</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05008905522265989</v>
+        <v>0.05098162875784194</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -2525,19 +2525,19 @@
         <v>15983</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8561</v>
+        <v>9208</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25892</v>
+        <v>25936</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04605420927234938</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0246678975838695</v>
+        <v>0.0265325681293534</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07460500705811698</v>
+        <v>0.07473167895712912</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>25</v>
@@ -2546,19 +2546,19 @@
         <v>28462</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19101</v>
+        <v>17969</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>41491</v>
+        <v>40885</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03667127163439395</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02460953934774954</v>
+        <v>0.02315150347469087</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0534572365880655</v>
+        <v>0.0526765076261839</v>
       </c>
     </row>
     <row r="5">
@@ -2575,19 +2575,19 @@
         <v>416613</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>407599</v>
+        <v>407216</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>422814</v>
+        <v>422350</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9709177639703205</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9499109447773401</v>
+        <v>0.9490183712421579</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9853693717792926</v>
+        <v>0.9842870735056586</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>318</v>
@@ -2596,19 +2596,19 @@
         <v>331072</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>321163</v>
+        <v>321119</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>338494</v>
+        <v>337847</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9539457907276506</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9253949929418832</v>
+        <v>0.925268321042871</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9753321024161306</v>
+        <v>0.9734674318706467</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>703</v>
@@ -2617,19 +2617,19 @@
         <v>747685</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>734656</v>
+        <v>735262</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>757046</v>
+        <v>758178</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.963328728365606</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9465427634119347</v>
+        <v>0.9473234923738162</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9753904606522504</v>
+        <v>0.9768484965253091</v>
       </c>
     </row>
     <row r="6">
@@ -2721,19 +2721,19 @@
         <v>5397</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1948</v>
+        <v>1913</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12118</v>
+        <v>11371</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01430730223205354</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005162902275369719</v>
+        <v>0.005070540655114226</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03212493994479661</v>
+        <v>0.03014422009670562</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -2742,19 +2742,19 @@
         <v>11614</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5661</v>
+        <v>5947</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20436</v>
+        <v>20873</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03119774789509228</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01520716247289476</v>
+        <v>0.01597594826786573</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05489460418232401</v>
+        <v>0.05606908641083663</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -2763,19 +2763,19 @@
         <v>17011</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10232</v>
+        <v>9816</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>28836</v>
+        <v>29114</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0226967074385714</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01365214646440714</v>
+        <v>0.01309700473034389</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0384731503887189</v>
+        <v>0.03884435542282147</v>
       </c>
     </row>
     <row r="8">
@@ -2792,19 +2792,19 @@
         <v>371830</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>365109</v>
+        <v>365856</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>375279</v>
+        <v>375314</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9856926977679464</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9678750600552035</v>
+        <v>0.9698557799032942</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9948370977246302</v>
+        <v>0.9949294593448857</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>342</v>
@@ -2813,19 +2813,19 @@
         <v>360659</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>351837</v>
+        <v>351400</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>366612</v>
+        <v>366326</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9688022521049077</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9451053958176762</v>
+        <v>0.9439309135891636</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9847928375271052</v>
+        <v>0.9840240517321344</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>691</v>
@@ -2834,19 +2834,19 @@
         <v>732489</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>720664</v>
+        <v>720386</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>739268</v>
+        <v>739684</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9773032925614286</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.961526849611281</v>
+        <v>0.9611556445771785</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9863478535355928</v>
+        <v>0.9869029952696561</v>
       </c>
     </row>
     <row r="9">
@@ -2938,19 +2938,19 @@
         <v>13294</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7420</v>
+        <v>6912</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21472</v>
+        <v>22194</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02547256126997231</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01421686846840456</v>
+        <v>0.01324396147352881</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04114116284196264</v>
+        <v>0.04252413835091708</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -2959,19 +2959,19 @@
         <v>24224</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15537</v>
+        <v>15381</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>35976</v>
+        <v>35219</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1458220404147034</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09352589697647395</v>
+        <v>0.09258799264252224</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2165619357246552</v>
+        <v>0.2120054556672427</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>33</v>
@@ -2980,19 +2980,19 @@
         <v>37519</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>24900</v>
+        <v>25657</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>49985</v>
+        <v>51178</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05453031198595281</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03618943828194047</v>
+        <v>0.03729056138086978</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07264913444313148</v>
+        <v>0.07438279781991573</v>
       </c>
     </row>
     <row r="11">
@@ -3009,19 +3009,19 @@
         <v>508620</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>500442</v>
+        <v>499720</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>514494</v>
+        <v>515002</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9745274387300277</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9588588371580375</v>
+        <v>0.9574758616490828</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9857831315315955</v>
+        <v>0.9867560385264711</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>133</v>
@@ -3030,19 +3030,19 @@
         <v>141899</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>130147</v>
+        <v>130904</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>150586</v>
+        <v>150742</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8541779595852966</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7834380642753449</v>
+        <v>0.7879945443327574</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9064741030235262</v>
+        <v>0.907412007357478</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>622</v>
@@ -3051,19 +3051,19 @@
         <v>650517</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>638051</v>
+        <v>636858</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>663136</v>
+        <v>662379</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9454696880140472</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9273508655568685</v>
+        <v>0.9256172021800843</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9638105617180595</v>
+        <v>0.9627094386191302</v>
       </c>
     </row>
     <row r="12">
@@ -3155,19 +3155,19 @@
         <v>39496</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>28613</v>
+        <v>28746</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>54156</v>
+        <v>52572</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03435510048513551</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02488863633897762</v>
+        <v>0.02500460701902484</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04710702496927661</v>
+        <v>0.04572924210536778</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>46</v>
@@ -3176,19 +3176,19 @@
         <v>50801</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>37736</v>
+        <v>37628</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>65660</v>
+        <v>69247</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06151160117668948</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04569189578829222</v>
+        <v>0.04556125927969738</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07950302110608862</v>
+        <v>0.08384633014532043</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>86</v>
@@ -3197,19 +3197,19 @@
         <v>90297</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>72328</v>
+        <v>73816</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>108625</v>
+        <v>112869</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04570804241136682</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03661237897818323</v>
+        <v>0.03736568962758495</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05498557689617246</v>
+        <v>0.05713402290899723</v>
       </c>
     </row>
     <row r="14">
@@ -3226,19 +3226,19 @@
         <v>1110142</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1095482</v>
+        <v>1097066</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1121025</v>
+        <v>1120892</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9656448995148645</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9528929750307233</v>
+        <v>0.9542707578946321</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9751113636610224</v>
+        <v>0.974995392980975</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>752</v>
@@ -3247,19 +3247,19 @@
         <v>775075</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>760216</v>
+        <v>756629</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>788140</v>
+        <v>788248</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9384883988233105</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.920496978893911</v>
+        <v>0.9161536698546796</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9543081042117079</v>
+        <v>0.9544387407203025</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1815</v>
@@ -3268,19 +3268,19 @@
         <v>1885217</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1866889</v>
+        <v>1862645</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1903186</v>
+        <v>1901698</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9542919575886332</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9450144231038275</v>
+        <v>0.9428659770910027</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9633876210218169</v>
+        <v>0.962634310372415</v>
       </c>
     </row>
     <row r="15">
@@ -3372,19 +3372,19 @@
         <v>34288</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>25011</v>
+        <v>25416</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>47258</v>
+        <v>48728</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05524020381270321</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04029372113845341</v>
+        <v>0.0409461656256185</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07613599626757488</v>
+        <v>0.07850426366638798</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>79</v>
@@ -3393,19 +3393,19 @@
         <v>89279</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>69412</v>
+        <v>72710</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>108797</v>
+        <v>111080</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1209342827587617</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09402292931554317</v>
+        <v>0.09849085111646814</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1473730929266328</v>
+        <v>0.1504646759199919</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>116</v>
@@ -3414,19 +3414,19 @@
         <v>123567</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>103258</v>
+        <v>102108</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>145185</v>
+        <v>146638</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09092824808310915</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07598380749600794</v>
+        <v>0.07513730472705518</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1068363981401756</v>
+        <v>0.107905094692471</v>
       </c>
     </row>
     <row r="17">
@@ -3443,19 +3443,19 @@
         <v>586418</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>573448</v>
+        <v>571978</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>595695</v>
+        <v>595290</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9447597961872968</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9238640037324253</v>
+        <v>0.921495736333612</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9597062788615467</v>
+        <v>0.9590538343743817</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>620</v>
@@ -3464,19 +3464,19 @@
         <v>648965</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>629447</v>
+        <v>627164</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>668832</v>
+        <v>665534</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8790657172412383</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8526269070733669</v>
+        <v>0.849535324080008</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9059770706844564</v>
+        <v>0.9015091488835317</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1180</v>
@@ -3485,19 +3485,19 @@
         <v>1235383</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1213765</v>
+        <v>1212312</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1255692</v>
+        <v>1256842</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9090717519168908</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8931636018598245</v>
+        <v>0.892094905307529</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.924016192503992</v>
+        <v>0.9248626952729448</v>
       </c>
     </row>
     <row r="18">
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5734</v>
+        <v>5693</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003951735175798903</v>
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01996802898966528</v>
+        <v>0.01982651456871982</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>107</v>
@@ -3610,19 +3610,19 @@
         <v>124743</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>103951</v>
+        <v>103948</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>149933</v>
+        <v>147442</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1152868509828679</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09607061174593665</v>
+        <v>0.09606838433610065</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1385668006140992</v>
+        <v>0.136264890756605</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>108</v>
@@ -3631,19 +3631,19 @@
         <v>125878</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>103438</v>
+        <v>103729</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>149301</v>
+        <v>151165</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09193742158216017</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07554826818707519</v>
+        <v>0.07576067079621697</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1090452421871106</v>
+        <v>0.110406314088282</v>
       </c>
     </row>
     <row r="20">
@@ -3660,7 +3660,7 @@
         <v>286010</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>281411</v>
+        <v>281452</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>287145</v>
@@ -3669,7 +3669,7 @@
         <v>0.9960482648242011</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9800319710103347</v>
+        <v>0.9801734854312804</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -3681,19 +3681,19 @@
         <v>957282</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>932092</v>
+        <v>934583</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>978074</v>
+        <v>978077</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8847131490171321</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8614331993859007</v>
+        <v>0.8637351092433949</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9039293882540632</v>
+        <v>0.9039316156638993</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1156</v>
@@ -3702,19 +3702,19 @@
         <v>1243292</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1219869</v>
+        <v>1218005</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1265732</v>
+        <v>1265441</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9080625784178399</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8909547578128897</v>
+        <v>0.8895936859117181</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9244517318129249</v>
+        <v>0.924239329203783</v>
       </c>
     </row>
     <row r="21">
@@ -3806,19 +3806,19 @@
         <v>106089</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>86853</v>
+        <v>87931</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>127012</v>
+        <v>127020</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03133426628962642</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02565267398372423</v>
+        <v>0.02597111933774788</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03751396336730434</v>
+        <v>0.03751634730051745</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>276</v>
@@ -3827,19 +3827,19 @@
         <v>316645</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>281192</v>
+        <v>281841</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>354077</v>
+        <v>351921</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08966059768584686</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0796218331690301</v>
+        <v>0.07980564832888315</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1002596689094187</v>
+        <v>0.09964937949169955</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>383</v>
@@ -3848,19 +3848,19 @@
         <v>422734</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>381872</v>
+        <v>379115</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>469224</v>
+        <v>460404</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06111243029021563</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05520525561699596</v>
+        <v>0.05480668703181991</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06783316248990683</v>
+        <v>0.06655810301900596</v>
       </c>
     </row>
     <row r="23">
@@ -3877,19 +3877,19 @@
         <v>3279633</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3258710</v>
+        <v>3258702</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3298869</v>
+        <v>3297791</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9686657337103736</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9624860366326957</v>
+        <v>0.9624836526994827</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9743473260162758</v>
+        <v>0.9740288806622521</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3050</v>
@@ -3898,19 +3898,19 @@
         <v>3214951</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3177519</v>
+        <v>3179675</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3250404</v>
+        <v>3249755</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9103394023141531</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8997403310905814</v>
+        <v>0.9003506205083003</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.92037816683097</v>
+        <v>0.9201943516711169</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6167</v>
@@ -3919,19 +3919,19 @@
         <v>6494584</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6448094</v>
+        <v>6456914</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6535446</v>
+        <v>6538203</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9388875697097844</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9321668375100932</v>
+        <v>0.933441896980994</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9447947443830041</v>
+        <v>0.94519331296818</v>
       </c>
     </row>
     <row r="24">
@@ -4265,19 +4265,19 @@
         <v>21301</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13981</v>
+        <v>14275</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31269</v>
+        <v>30955</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03868495710682024</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02539172595306127</v>
+        <v>0.02592521851048117</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05678946225032701</v>
+        <v>0.05621923200164897</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>63</v>
@@ -4286,19 +4286,19 @@
         <v>42404</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>32678</v>
+        <v>32290</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>53470</v>
+        <v>53516</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08682041790337733</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06690701457823055</v>
+        <v>0.06611151909854632</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1094782746887421</v>
+        <v>0.1095722074788372</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>91</v>
@@ -4307,19 +4307,19 @@
         <v>63705</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>51167</v>
+        <v>51734</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>77336</v>
+        <v>79149</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06131173615459524</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04924457918474449</v>
+        <v>0.04979057217873058</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07443148400103657</v>
+        <v>0.07617597010467056</v>
       </c>
     </row>
     <row r="5">
@@ -4336,19 +4336,19 @@
         <v>529317</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>519349</v>
+        <v>519663</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>536637</v>
+        <v>536343</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9613150428931797</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9432105377496732</v>
+        <v>0.9437807679983513</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9746082740469388</v>
+        <v>0.9740747814895189</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>623</v>
@@ -4357,19 +4357,19 @@
         <v>446007</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>434941</v>
+        <v>434895</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>455733</v>
+        <v>456121</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9131795820966228</v>
+        <v>0.9131795820966225</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8905217253112581</v>
+        <v>0.8904277925211628</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9330929854217699</v>
+        <v>0.9338884809014537</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1149</v>
@@ -4378,19 +4378,19 @@
         <v>975324</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>961693</v>
+        <v>959880</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>987862</v>
+        <v>987295</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9386882638454048</v>
+        <v>0.9386882638454049</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9255685159989643</v>
+        <v>0.9238240298953294</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.950755420815256</v>
+        <v>0.95020942782127</v>
       </c>
     </row>
     <row r="6">
@@ -4482,19 +4482,19 @@
         <v>21113</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14016</v>
+        <v>13785</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30325</v>
+        <v>30194</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04369402096219487</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02900537140078797</v>
+        <v>0.02852794602545998</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06275654413220594</v>
+        <v>0.06248672314930646</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>75</v>
@@ -4503,19 +4503,19 @@
         <v>47752</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>37651</v>
+        <v>38250</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>59333</v>
+        <v>60481</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1128511498731974</v>
+        <v>0.1128511498731973</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08897834281131498</v>
+        <v>0.09039578117084617</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1402198142080358</v>
+        <v>0.1429331304093842</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>102</v>
@@ -4524,19 +4524,19 @@
         <v>68866</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>56375</v>
+        <v>56645</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>82433</v>
+        <v>83671</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07598086759141738</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06219949947362046</v>
+        <v>0.06249800917051718</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09095034961716028</v>
+        <v>0.09231550839485374</v>
       </c>
     </row>
     <row r="8">
@@ -4553,19 +4553,19 @@
         <v>462099</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>452887</v>
+        <v>453018</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>469196</v>
+        <v>469427</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9563059790378051</v>
+        <v>0.9563059790378052</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9372434558677939</v>
+        <v>0.9375132768506933</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9709946285992122</v>
+        <v>0.9714720539745398</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>515</v>
@@ -4574,19 +4574,19 @@
         <v>375391</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>363810</v>
+        <v>362662</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>385492</v>
+        <v>384893</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8871488501268026</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8597801857919642</v>
+        <v>0.8570668695906158</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9110216571886851</v>
+        <v>0.9096042188291541</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>969</v>
@@ -4595,19 +4595,19 @@
         <v>837489</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>823922</v>
+        <v>822684</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>849980</v>
+        <v>849710</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9240191324085826</v>
+        <v>0.9240191324085829</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9090496503828397</v>
+        <v>0.9076844916051463</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9378005005263795</v>
+        <v>0.9375019908294829</v>
       </c>
     </row>
     <row r="9">
@@ -4699,19 +4699,19 @@
         <v>41787</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>32293</v>
+        <v>30614</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>56878</v>
+        <v>55071</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.08860556578291633</v>
+        <v>0.08860556578291631</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06847419402841792</v>
+        <v>0.06491263593250576</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1206029498215374</v>
+        <v>0.1167726504676429</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>57</v>
@@ -4720,19 +4720,19 @@
         <v>33670</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>26082</v>
+        <v>25987</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>41944</v>
+        <v>41411</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1795735469697675</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1391037633762826</v>
+        <v>0.1385998583995302</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2237061342031332</v>
+        <v>0.2208632948765271</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>108</v>
@@ -4741,19 +4741,19 @@
         <v>75457</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>61436</v>
+        <v>62141</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>89446</v>
+        <v>91860</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1144833029861055</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09321005094869916</v>
+        <v>0.09428024442162554</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1357079067167473</v>
+        <v>0.1393702488461558</v>
       </c>
     </row>
     <row r="11">
@@ -4770,19 +4770,19 @@
         <v>429825</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>414734</v>
+        <v>416541</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>439319</v>
+        <v>440998</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9113944342170838</v>
+        <v>0.9113944342170835</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8793970501784634</v>
+        <v>0.8832273495323567</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9315258059715821</v>
+        <v>0.9350873640674942</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>232</v>
@@ -4791,19 +4791,19 @@
         <v>153827</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>145553</v>
+        <v>146086</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>161415</v>
+        <v>161510</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8204264530302325</v>
+        <v>0.8204264530302323</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.776293865796867</v>
+        <v>0.7791367051234729</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8608962366237173</v>
+        <v>0.8614001416004698</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>669</v>
@@ -4812,19 +4812,19 @@
         <v>583652</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>569663</v>
+        <v>567249</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>597673</v>
+        <v>596968</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8855166970138946</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8642920932832526</v>
+        <v>0.8606297511538442</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9067899490513007</v>
+        <v>0.9057197555783745</v>
       </c>
     </row>
     <row r="12">
@@ -4916,19 +4916,19 @@
         <v>106086</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>89979</v>
+        <v>88773</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>124788</v>
+        <v>123941</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09372827663889184</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07949749610975732</v>
+        <v>0.07843261642618733</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1102518011836354</v>
+        <v>0.1095040618101157</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>159</v>
@@ -4937,19 +4937,19 @@
         <v>93789</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>80272</v>
+        <v>77907</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>107863</v>
+        <v>107622</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1089034253572581</v>
+        <v>0.1089034253572582</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09320880722595207</v>
+        <v>0.09046233203197274</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1252457920342922</v>
+        <v>0.1249663304743837</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>301</v>
@@ -4958,19 +4958,19 @@
         <v>199875</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>178532</v>
+        <v>177397</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>223791</v>
+        <v>226688</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1002855550831211</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08957705434621438</v>
+        <v>0.08900761675328046</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1122856753182314</v>
+        <v>0.1137392038932982</v>
       </c>
     </row>
     <row r="14">
@@ -4987,19 +4987,19 @@
         <v>1025757</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1007055</v>
+        <v>1007902</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1041864</v>
+        <v>1043070</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9062717233611081</v>
+        <v>0.9062717233611082</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8897481988163647</v>
+        <v>0.8904959381898844</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9205025038902426</v>
+        <v>0.9215673835738128</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1071</v>
@@ -5008,19 +5008,19 @@
         <v>767422</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>753348</v>
+        <v>753589</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>780939</v>
+        <v>783304</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8910965746427418</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8747542079657077</v>
+        <v>0.8750336695256162</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9067911927740476</v>
+        <v>0.9095376679680276</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2047</v>
@@ -5029,19 +5029,19 @@
         <v>1793179</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1769263</v>
+        <v>1766366</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1814522</v>
+        <v>1815657</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8997144449168787</v>
+        <v>0.899714444916879</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8877143246817685</v>
+        <v>0.8862607961067019</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9104229456537863</v>
+        <v>0.9109923832467194</v>
       </c>
     </row>
     <row r="15">
@@ -5133,19 +5133,19 @@
         <v>46019</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>36150</v>
+        <v>35221</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>59665</v>
+        <v>58440</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.08102389304827853</v>
+        <v>0.08102389304827851</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06364879859703118</v>
+        <v>0.06201212346924995</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1050512988976576</v>
+        <v>0.1028931672338145</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>347</v>
@@ -5154,19 +5154,19 @@
         <v>190189</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>171844</v>
+        <v>170245</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>210052</v>
+        <v>209448</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.228908623431865</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2068294881693559</v>
+        <v>0.2049047974181299</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2528155519879256</v>
+        <v>0.2520882552788296</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>409</v>
@@ -5175,19 +5175,19 @@
         <v>236207</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>212250</v>
+        <v>215448</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>258324</v>
+        <v>261526</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1688626372641215</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1517359640921474</v>
+        <v>0.1540221873178014</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1846733792800616</v>
+        <v>0.1869627740845199</v>
       </c>
     </row>
     <row r="17">
@@ -5204,19 +5204,19 @@
         <v>521945</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>508299</v>
+        <v>509524</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>531814</v>
+        <v>532743</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9189761069517215</v>
+        <v>0.9189761069517214</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8949487011023424</v>
+        <v>0.8971068327661849</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9363512014029687</v>
+        <v>0.9379878765307501</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>943</v>
@@ -5225,19 +5225,19 @@
         <v>640661</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>620798</v>
+        <v>621402</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>659006</v>
+        <v>660605</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.771091376568135</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7471844480120742</v>
+        <v>0.7479117447211704</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7931705118306442</v>
+        <v>0.7950952025818701</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1428</v>
@@ -5246,19 +5246,19 @@
         <v>1162607</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1140490</v>
+        <v>1137288</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1186564</v>
+        <v>1183366</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8311373627358786</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8153266207199382</v>
+        <v>0.8130372259154801</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8482640359078527</v>
+        <v>0.8459778126821985</v>
       </c>
     </row>
     <row r="18">
@@ -5350,19 +5350,19 @@
         <v>3727</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1460</v>
+        <v>1273</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8203</v>
+        <v>7809</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01570863538557242</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006156201595657365</v>
+        <v>0.005364149110605031</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03457888184721538</v>
+        <v>0.03291835540957197</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>253</v>
@@ -5371,19 +5371,19 @@
         <v>141881</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>123406</v>
+        <v>125540</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>159593</v>
+        <v>162774</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1680500822188807</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1461672216042164</v>
+        <v>0.1486950585671222</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1890282027436394</v>
+        <v>0.1927963937868279</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>259</v>
@@ -5392,19 +5392,19 @@
         <v>145608</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>126862</v>
+        <v>126386</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>163789</v>
+        <v>165535</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1346341539332215</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1173007192758856</v>
+        <v>0.1168603725705461</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1514445507647475</v>
+        <v>0.1530594242091202</v>
       </c>
     </row>
     <row r="20">
@@ -5421,19 +5421,19 @@
         <v>233501</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>229025</v>
+        <v>229419</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>235768</v>
+        <v>235955</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9842913646144276</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9654211181527849</v>
+        <v>0.9670816445904282</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9938437984043429</v>
+        <v>0.9946358508893951</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>906</v>
@@ -5442,19 +5442,19 @@
         <v>702400</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>684688</v>
+        <v>681507</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>720875</v>
+        <v>718741</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8319499177811192</v>
+        <v>0.8319499177811193</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8109717972563606</v>
+        <v>0.8072036062131721</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8538327783957838</v>
+        <v>0.8513049414328778</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1012</v>
@@ -5463,19 +5463,19 @@
         <v>935901</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>917720</v>
+        <v>915974</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>954647</v>
+        <v>955123</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8653658460667786</v>
+        <v>0.8653658460667788</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8485554492352527</v>
+        <v>0.8469405757908798</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8826992807241146</v>
+        <v>0.883139627429454</v>
       </c>
     </row>
     <row r="21">
@@ -5567,19 +5567,19 @@
         <v>240032</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>214516</v>
+        <v>213337</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>269300</v>
+        <v>269656</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06972666152605482</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0623145419770967</v>
+        <v>0.06197203097481786</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0782285724420075</v>
+        <v>0.07833213455349118</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>954</v>
@@ -5588,19 +5588,19 @@
         <v>549685</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>518871</v>
+        <v>514476</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>586153</v>
+        <v>583077</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1512036752124977</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1427275952999627</v>
+        <v>0.1415186635808546</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.161235004573126</v>
+        <v>0.160388937747754</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1270</v>
@@ -5609,19 +5609,19 @@
         <v>789717</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>747477</v>
+        <v>747771</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>832673</v>
+        <v>839712</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1115755531224231</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1056075950295916</v>
+        <v>0.105649217008749</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1176446312577674</v>
+        <v>0.1186391139727263</v>
       </c>
     </row>
     <row r="23">
@@ -5638,19 +5638,19 @@
         <v>3202444</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3173176</v>
+        <v>3172820</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3227960</v>
+        <v>3229139</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9302733384739453</v>
+        <v>0.9302733384739452</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9217714275579924</v>
+        <v>0.9216678654465089</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9376854580229034</v>
+        <v>0.9380279690251823</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4290</v>
@@ -5659,19 +5659,19 @@
         <v>3085708</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3049240</v>
+        <v>3052316</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3116522</v>
+        <v>3120917</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.8487963247875023</v>
+        <v>0.8487963247875024</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.838764995426874</v>
+        <v>0.839611062252246</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8572724047000374</v>
+        <v>0.8584813364191461</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7274</v>
@@ -5680,19 +5680,19 @@
         <v>6288152</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6245196</v>
+        <v>6238157</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6330392</v>
+        <v>6330098</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8884244468775769</v>
+        <v>0.8884244468775768</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8823553687422324</v>
+        <v>0.881360886027274</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8943924049704082</v>
+        <v>0.894350782991251</v>
       </c>
     </row>
     <row r="24">
